--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H2">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N2">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q2">
-        <v>1.984122950932889</v>
+        <v>0.09214678874444443</v>
       </c>
       <c r="R2">
-        <v>17.857106558396</v>
+        <v>0.8293210986999999</v>
       </c>
       <c r="S2">
-        <v>0.08194817407270871</v>
+        <v>0.004762044747645694</v>
       </c>
       <c r="T2">
-        <v>0.08194817407270871</v>
+        <v>0.004762044747645694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H3">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05554566666666666</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N3">
-        <v>0.166637</v>
+        <v>11.329724</v>
       </c>
       <c r="O3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q3">
-        <v>0.02918237868588889</v>
+        <v>5.071593591322221</v>
       </c>
       <c r="R3">
-        <v>0.262641408173</v>
+        <v>45.64434232189999</v>
       </c>
       <c r="S3">
-        <v>0.001205289544825095</v>
+        <v>0.2620943817231572</v>
       </c>
       <c r="T3">
-        <v>0.001205289544825095</v>
+        <v>0.2620943817231572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4963216666666667</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H4">
-        <v>1.488965</v>
+        <v>4.028725</v>
       </c>
       <c r="I4">
-        <v>0.07855486254950023</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J4">
-        <v>0.07855486254950023</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.776574666666667</v>
+        <v>0.303255</v>
       </c>
       <c r="N4">
-        <v>11.329724</v>
+        <v>0.909765</v>
       </c>
       <c r="O4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q4">
-        <v>1.874395832851111</v>
+        <v>0.4072436666249999</v>
       </c>
       <c r="R4">
-        <v>16.86956249566</v>
+        <v>3.665192999625</v>
       </c>
       <c r="S4">
-        <v>0.0774162286260647</v>
+        <v>0.02104590501837186</v>
       </c>
       <c r="T4">
-        <v>0.0774162286260647</v>
+        <v>0.02104590501837186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H5">
         <v>1.488965</v>
       </c>
       <c r="I5">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J5">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,33 +741,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05554566666666666</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N5">
-        <v>0.166637</v>
+        <v>0.205852</v>
       </c>
       <c r="O5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q5">
-        <v>0.02756851785611111</v>
+        <v>0.03405626924222222</v>
       </c>
       <c r="R5">
-        <v>0.248116660705</v>
+        <v>0.30650642318</v>
       </c>
       <c r="S5">
-        <v>0.001138633923435517</v>
+        <v>0.001759990557230456</v>
       </c>
       <c r="T5">
-        <v>0.001138633923435517</v>
+        <v>0.001759990557230456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,22 +779,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2246166666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H6">
-        <v>0.6738499999999999</v>
+        <v>1.488965</v>
       </c>
       <c r="I6">
-        <v>0.03555099960642508</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J6">
-        <v>0.03555099960642508</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.776574666666667</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N6">
         <v>11.329724</v>
       </c>
       <c r="O6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q6">
-        <v>0.8482816130444445</v>
+        <v>1.874395832851111</v>
       </c>
       <c r="R6">
-        <v>7.6345345174</v>
+        <v>16.86956249565999</v>
       </c>
       <c r="S6">
-        <v>0.03503569637948084</v>
+        <v>0.09686671616514425</v>
       </c>
       <c r="T6">
-        <v>0.03503569637948084</v>
+        <v>0.09686671616514425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>22</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4963216666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.488965</v>
+      </c>
+      <c r="I7">
+        <v>0.1064050028249084</v>
+      </c>
+      <c r="J7">
+        <v>0.1064050028249084</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.2246166666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.6738499999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.03555099960642508</v>
-      </c>
-      <c r="J7">
-        <v>0.03555099960642508</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M7">
-        <v>0.05554566666666666</v>
+        <v>0.303255</v>
       </c>
       <c r="N7">
-        <v>0.166637</v>
+        <v>0.909765</v>
       </c>
       <c r="O7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q7">
-        <v>0.01247648249444444</v>
+        <v>0.150512027025</v>
       </c>
       <c r="R7">
-        <v>0.11228834245</v>
+        <v>1.354608243225</v>
       </c>
       <c r="S7">
-        <v>0.0005153032269442352</v>
+        <v>0.007778296102533694</v>
       </c>
       <c r="T7">
-        <v>0.0005153032269442352</v>
+        <v>0.007778296102533696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>5.071838666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H8">
-        <v>15.215516</v>
+        <v>0.450592</v>
       </c>
       <c r="I8">
-        <v>0.8027406742265409</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J8">
-        <v>0.8027406742265409</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N8">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q8">
-        <v>19.15417742195378</v>
+        <v>0.01030614048711111</v>
       </c>
       <c r="R8">
-        <v>172.387596797584</v>
+        <v>0.092755264384</v>
       </c>
       <c r="S8">
-        <v>0.7911051403622957</v>
+        <v>0.0005326100110906475</v>
       </c>
       <c r="T8">
-        <v>0.7911051403622957</v>
+        <v>0.0005326100110906475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1501973333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.450592</v>
+      </c>
+      <c r="I9">
+        <v>0.03220038283833477</v>
+      </c>
+      <c r="J9">
+        <v>0.03220038283833477</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N9">
+        <v>11.329724</v>
+      </c>
+      <c r="O9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q9">
+        <v>0.5672314440675554</v>
+      </c>
+      <c r="R9">
+        <v>5.105082996607999</v>
+      </c>
+      <c r="S9">
+        <v>0.02931389748602867</v>
+      </c>
+      <c r="T9">
+        <v>0.02931389748602867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.071838666666667</v>
-      </c>
-      <c r="H9">
-        <v>15.215516</v>
-      </c>
-      <c r="I9">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="J9">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.05554566666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.166637</v>
-      </c>
-      <c r="O9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="P9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="Q9">
-        <v>0.2817186599657778</v>
-      </c>
-      <c r="R9">
-        <v>2.535467939692</v>
-      </c>
-      <c r="S9">
-        <v>0.01163553386424522</v>
-      </c>
-      <c r="T9">
-        <v>0.01163553386424522</v>
+      <c r="G10">
+        <v>0.1501973333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.450592</v>
+      </c>
+      <c r="I10">
+        <v>0.03220038283833477</v>
+      </c>
+      <c r="J10">
+        <v>0.03220038283833477</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.303255</v>
+      </c>
+      <c r="N10">
+        <v>0.909765</v>
+      </c>
+      <c r="O10">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P10">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q10">
+        <v>0.04554809232</v>
+      </c>
+      <c r="R10">
+        <v>0.40993283088</v>
+      </c>
+      <c r="S10">
+        <v>0.00235387534121545</v>
+      </c>
+      <c r="T10">
+        <v>0.00235387534121545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.675030666666667</v>
+      </c>
+      <c r="H11">
+        <v>8.025092000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.573492282847582</v>
+      </c>
+      <c r="J11">
+        <v>0.573492282847582</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.06861733333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.205852</v>
+      </c>
+      <c r="O11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="P11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="Q11">
+        <v>0.1835534709315556</v>
+      </c>
+      <c r="R11">
+        <v>1.651981238384</v>
+      </c>
+      <c r="S11">
+        <v>0.009485841601989087</v>
+      </c>
+      <c r="T11">
+        <v>0.009485841601989087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.675030666666667</v>
+      </c>
+      <c r="H12">
+        <v>8.025092000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.573492282847582</v>
+      </c>
+      <c r="J12">
+        <v>0.573492282847582</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N12">
+        <v>11.329724</v>
+      </c>
+      <c r="O12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q12">
+        <v>10.10245304828978</v>
+      </c>
+      <c r="R12">
+        <v>90.922077434608</v>
+      </c>
+      <c r="S12">
+        <v>0.5220836681608835</v>
+      </c>
+      <c r="T12">
+        <v>0.5220836681608835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.675030666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.025092000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.573492282847582</v>
+      </c>
+      <c r="J13">
+        <v>0.573492282847582</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.303255</v>
+      </c>
+      <c r="N13">
+        <v>0.909765</v>
+      </c>
+      <c r="O13">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P13">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q13">
+        <v>0.81121642482</v>
+      </c>
+      <c r="R13">
+        <v>7.300947823380001</v>
+      </c>
+      <c r="S13">
+        <v>0.0419227730847094</v>
+      </c>
+      <c r="T13">
+        <v>0.04192277308470941</v>
       </c>
     </row>
   </sheetData>
